--- a/config/montara_fpso_2011_baseline/ref/input.xlsx
+++ b/config/montara_fpso_2011_baseline/ref/input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\data-mapping\config\montara_fpso_2011_baseline\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010D34B9-CF66-4CCC-B82D-A1E0F73A0086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7ED34D-9543-44F6-991E-0A9DFE275DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,9 +494,6 @@
     <t>2011 BL.xslx</t>
   </si>
   <si>
-    <t>150-PG-23012-25CO2-A</t>
-  </si>
-  <si>
     <t>100-FG-45504-03C02-E</t>
   </si>
   <si>
@@ -521,9 +518,6 @@
     <t>150-PG-23011-25C02-A</t>
   </si>
   <si>
-    <t>200-PG-23013-09C02-A</t>
-  </si>
-  <si>
     <t>200-PG-23014-09C03-A</t>
   </si>
   <si>
@@ -540,6 +534,12 @@
   </si>
   <si>
     <t>50-FL-43454-01C02-P</t>
+  </si>
+  <si>
+    <t>150-PG-23012-25C02-A</t>
+  </si>
+  <si>
+    <t>200-PG-23013-09C03-A</t>
   </si>
 </sst>
 </file>
@@ -879,8 +879,8 @@
   </sheetPr>
   <dimension ref="A1:V548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="E445" sqref="E445"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="I282" sqref="I282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3933,7 +3933,7 @@
         <v>25</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>46</v>
@@ -3989,7 +3989,7 @@
         <v>25</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>46</v>
@@ -4048,7 +4048,7 @@
         <v>25</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>46</v>
@@ -4107,7 +4107,7 @@
         <v>25</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>46</v>
@@ -4166,7 +4166,7 @@
         <v>25</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>46</v>
@@ -4225,7 +4225,7 @@
         <v>25</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>46</v>
@@ -4281,7 +4281,7 @@
         <v>25</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>46</v>
@@ -4337,7 +4337,7 @@
         <v>25</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>46</v>
@@ -4393,7 +4393,7 @@
         <v>25</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>46</v>
@@ -4452,7 +4452,7 @@
         <v>25</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>46</v>
@@ -4511,7 +4511,7 @@
         <v>25</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>46</v>
@@ -4567,7 +4567,7 @@
         <v>25</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>46</v>
@@ -4850,7 +4850,7 @@
         <v>25</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>49</v>
@@ -4906,7 +4906,7 @@
         <v>25</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>49</v>
@@ -4965,7 +4965,7 @@
         <v>25</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>49</v>
@@ -5024,7 +5024,7 @@
         <v>25</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>49</v>
@@ -5083,7 +5083,7 @@
         <v>25</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>49</v>
@@ -5139,7 +5139,7 @@
         <v>25</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>49</v>
@@ -5195,7 +5195,7 @@
         <v>25</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>49</v>
@@ -5251,7 +5251,7 @@
         <v>25</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>49</v>
@@ -5307,7 +5307,7 @@
         <v>25</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>49</v>
@@ -5363,7 +5363,7 @@
         <v>25</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>49</v>
@@ -5419,7 +5419,7 @@
         <v>25</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>49</v>
@@ -5478,7 +5478,7 @@
         <v>25</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>49</v>
@@ -5537,7 +5537,7 @@
         <v>25</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>49</v>
@@ -5596,7 +5596,7 @@
         <v>25</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>49</v>
@@ -6342,7 +6342,7 @@
         <v>27</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>52</v>
@@ -6399,7 +6399,7 @@
         <v>27</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>52</v>
@@ -6456,7 +6456,7 @@
         <v>27</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>52</v>
@@ -6513,7 +6513,7 @@
         <v>26</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>52</v>
@@ -6570,7 +6570,7 @@
         <v>26</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>52</v>
@@ -6627,7 +6627,7 @@
         <v>26</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>52</v>
@@ -6684,7 +6684,7 @@
         <v>26</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>54</v>
@@ -6740,7 +6740,7 @@
         <v>26</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>54</v>
@@ -6796,7 +6796,7 @@
         <v>26</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>54</v>
@@ -6855,7 +6855,7 @@
         <v>26</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>54</v>
@@ -6914,7 +6914,7 @@
         <v>26</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>54</v>
@@ -6973,7 +6973,7 @@
         <v>26</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>54</v>
@@ -7029,7 +7029,7 @@
         <v>26</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>54</v>
@@ -7085,7 +7085,7 @@
         <v>26</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>54</v>
@@ -7141,7 +7141,7 @@
         <v>26</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>54</v>
@@ -7197,7 +7197,7 @@
         <v>26</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>54</v>
@@ -7256,7 +7256,7 @@
         <v>26</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>54</v>
@@ -7315,7 +7315,7 @@
         <v>26</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>54</v>
@@ -7374,7 +7374,7 @@
         <v>26</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>54</v>
@@ -7430,7 +7430,7 @@
         <v>26</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>54</v>
@@ -9606,7 +9606,7 @@
         <v>25</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>62</v>
@@ -9663,7 +9663,7 @@
         <v>25</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>62</v>
@@ -9720,7 +9720,7 @@
         <v>25</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>62</v>
@@ -9777,7 +9777,7 @@
         <v>25</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>62</v>
@@ -9834,7 +9834,7 @@
         <v>25</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>62</v>
@@ -9891,7 +9891,7 @@
         <v>25</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>62</v>
@@ -9948,7 +9948,7 @@
         <v>25</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>62</v>
@@ -10005,7 +10005,7 @@
         <v>25</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>62</v>
@@ -10062,7 +10062,7 @@
         <v>25</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>62</v>
@@ -10119,7 +10119,7 @@
         <v>25</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>62</v>
@@ -10176,7 +10176,7 @@
         <v>25</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>62</v>
@@ -10230,7 +10230,7 @@
         <v>25</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>62</v>
@@ -10289,7 +10289,7 @@
         <v>25</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>62</v>
@@ -10348,7 +10348,7 @@
         <v>25</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>62</v>
@@ -10407,7 +10407,7 @@
         <v>25</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>62</v>
@@ -10466,7 +10466,7 @@
         <v>25</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>62</v>
@@ -10525,7 +10525,7 @@
         <v>25</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>62</v>
@@ -10581,7 +10581,7 @@
         <v>25</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>62</v>
@@ -10637,7 +10637,7 @@
         <v>25</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>65</v>
@@ -10693,7 +10693,7 @@
         <v>25</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>65</v>
@@ -10752,7 +10752,7 @@
         <v>25</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>65</v>
@@ -10811,7 +10811,7 @@
         <v>25</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>65</v>
@@ -10870,7 +10870,7 @@
         <v>25</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>65</v>
@@ -10926,7 +10926,7 @@
         <v>25</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>65</v>
@@ -10982,7 +10982,7 @@
         <v>25</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>65</v>
@@ -11038,7 +11038,7 @@
         <v>27</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>65</v>
@@ -11094,7 +11094,7 @@
         <v>27</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>65</v>
@@ -11153,7 +11153,7 @@
         <v>27</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>65</v>
@@ -11212,7 +11212,7 @@
         <v>27</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>65</v>
@@ -11271,7 +11271,7 @@
         <v>27</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>65</v>
@@ -11327,7 +11327,7 @@
         <v>27</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>65</v>
@@ -11383,7 +11383,7 @@
         <v>27</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>65</v>
@@ -11439,7 +11439,7 @@
         <v>27</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>65</v>
@@ -11495,7 +11495,7 @@
         <v>27</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>65</v>
@@ -11554,7 +11554,7 @@
         <v>27</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>65</v>
@@ -11613,7 +11613,7 @@
         <v>27</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>65</v>
@@ -11672,7 +11672,7 @@
         <v>27</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>65</v>
@@ -11728,7 +11728,7 @@
         <v>27</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>65</v>
@@ -12186,7 +12186,7 @@
         <v>28</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>69</v>
@@ -12242,7 +12242,7 @@
         <v>28</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>69</v>
@@ -12301,7 +12301,7 @@
         <v>28</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>69</v>
@@ -12360,7 +12360,7 @@
         <v>28</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>69</v>
@@ -12419,7 +12419,7 @@
         <v>28</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>69</v>
@@ -12481,7 +12481,7 @@
         <v>28</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>69</v>
@@ -12540,7 +12540,7 @@
         <v>28</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>69</v>
@@ -12596,7 +12596,7 @@
         <v>28</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>69</v>
@@ -12652,7 +12652,7 @@
         <v>28</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>69</v>
@@ -12708,7 +12708,7 @@
         <v>28</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>69</v>
@@ -12770,7 +12770,7 @@
         <v>28</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>69</v>
@@ -12832,7 +12832,7 @@
         <v>28</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>69</v>
@@ -12891,7 +12891,7 @@
         <v>28</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>69</v>
@@ -12950,7 +12950,7 @@
         <v>28</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>69</v>
@@ -13006,7 +13006,7 @@
         <v>28</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>69</v>
@@ -13062,7 +13062,7 @@
         <v>28</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>69</v>
@@ -13121,7 +13121,7 @@
         <v>28</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>69</v>
@@ -13183,7 +13183,7 @@
         <v>28</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>69</v>
@@ -13245,7 +13245,7 @@
         <v>28</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>69</v>
@@ -13307,7 +13307,7 @@
         <v>28</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>69</v>
@@ -13366,7 +13366,7 @@
         <v>28</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>69</v>
@@ -13422,7 +13422,7 @@
         <v>28</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>69</v>
@@ -13478,7 +13478,7 @@
         <v>28</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>69</v>
@@ -13537,7 +13537,7 @@
         <v>28</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>69</v>
@@ -13599,7 +13599,7 @@
         <v>28</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>69</v>
@@ -13661,7 +13661,7 @@
         <v>28</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>69</v>
@@ -13723,7 +13723,7 @@
         <v>28</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>69</v>
@@ -13782,7 +13782,7 @@
         <v>28</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>69</v>
@@ -13838,7 +13838,7 @@
         <v>27</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>71</v>
@@ -13897,7 +13897,7 @@
         <v>27</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>71</v>
@@ -13959,7 +13959,7 @@
         <v>27</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>71</v>
@@ -14018,7 +14018,7 @@
         <v>27</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>71</v>
@@ -14074,7 +14074,7 @@
         <v>27</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>72</v>
@@ -14130,7 +14130,7 @@
         <v>27</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>72</v>
@@ -14186,7 +14186,7 @@
         <v>27</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>72</v>
@@ -14245,7 +14245,7 @@
         <v>27</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>72</v>
@@ -14301,7 +14301,7 @@
         <v>27</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>73</v>
@@ -14357,7 +14357,7 @@
         <v>27</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>73</v>
@@ -14413,7 +14413,7 @@
         <v>27</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>73</v>
@@ -14472,7 +14472,7 @@
         <v>27</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>73</v>
@@ -14528,7 +14528,7 @@
         <v>27</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>73</v>
@@ -14584,7 +14584,7 @@
         <v>27</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>73</v>
@@ -14640,7 +14640,7 @@
         <v>27</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>73</v>
@@ -14696,7 +14696,7 @@
         <v>27</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>73</v>
@@ -14755,7 +14755,7 @@
         <v>27</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>73</v>
@@ -14811,7 +14811,7 @@
         <v>27</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>74</v>
@@ -14867,7 +14867,7 @@
         <v>27</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>74</v>
@@ -14926,7 +14926,7 @@
         <v>27</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>74</v>
@@ -14982,7 +14982,7 @@
         <v>27</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>74</v>
@@ -15038,7 +15038,7 @@
         <v>27</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>74</v>
@@ -15094,7 +15094,7 @@
         <v>27</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>74</v>
@@ -15153,7 +15153,7 @@
         <v>27</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>74</v>
@@ -15215,7 +15215,7 @@
         <v>27</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>74</v>
@@ -15274,7 +15274,7 @@
         <v>27</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>74</v>
@@ -15330,7 +15330,7 @@
         <v>27</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>74</v>
@@ -15386,7 +15386,7 @@
         <v>27</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>74</v>
@@ -15442,7 +15442,7 @@
         <v>27</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>74</v>
@@ -15501,7 +15501,7 @@
         <v>27</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>74</v>
@@ -15557,7 +15557,7 @@
         <v>27</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>74</v>
@@ -15613,7 +15613,7 @@
         <v>27</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>75</v>
@@ -15669,7 +15669,7 @@
         <v>27</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>75</v>
@@ -15725,7 +15725,7 @@
         <v>27</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>75</v>
@@ -15784,7 +15784,7 @@
         <v>27</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>75</v>
@@ -15840,7 +15840,7 @@
         <v>27</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>75</v>
@@ -15899,7 +15899,7 @@
         <v>27</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>76</v>
@@ -15955,7 +15955,7 @@
         <v>27</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>76</v>
@@ -16011,7 +16011,7 @@
         <v>27</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>76</v>
@@ -16070,7 +16070,7 @@
         <v>27</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>76</v>
@@ -16126,7 +16126,7 @@
         <v>27</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>76</v>
@@ -16182,7 +16182,7 @@
         <v>28</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>77</v>
@@ -16238,7 +16238,7 @@
         <v>28</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>77</v>
@@ -16294,7 +16294,7 @@
         <v>28</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>77</v>
@@ -16353,7 +16353,7 @@
         <v>28</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>77</v>
@@ -16409,7 +16409,7 @@
         <v>28</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>77</v>
@@ -16465,7 +16465,7 @@
         <v>29</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>78</v>
@@ -16521,7 +16521,7 @@
         <v>29</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>78</v>
@@ -16577,7 +16577,7 @@
         <v>29</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>78</v>
@@ -16636,7 +16636,7 @@
         <v>29</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>78</v>
@@ -16695,7 +16695,7 @@
         <v>29</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>78</v>
@@ -16754,7 +16754,7 @@
         <v>29</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>78</v>
@@ -16810,7 +16810,7 @@
         <v>29</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>78</v>
@@ -16866,7 +16866,7 @@
         <v>29</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>78</v>
@@ -16922,7 +16922,7 @@
         <v>29</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>78</v>
@@ -16981,7 +16981,7 @@
         <v>29</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>78</v>
@@ -17040,7 +17040,7 @@
         <v>29</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>78</v>
@@ -17099,7 +17099,7 @@
         <v>29</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>78</v>
@@ -17155,7 +17155,7 @@
         <v>29</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>78</v>
@@ -17211,7 +17211,7 @@
         <v>28</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>79</v>
@@ -17268,7 +17268,7 @@
         <v>28</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>79</v>
@@ -17325,7 +17325,7 @@
         <v>28</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>79</v>
@@ -17382,7 +17382,7 @@
         <v>28</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>80</v>
@@ -17438,7 +17438,7 @@
         <v>28</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>80</v>
@@ -17497,7 +17497,7 @@
         <v>28</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>80</v>
@@ -17559,7 +17559,7 @@
         <v>28</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>80</v>
@@ -17621,7 +17621,7 @@
         <v>28</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>80</v>
@@ -17683,7 +17683,7 @@
         <v>28</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>80</v>
@@ -17739,7 +17739,7 @@
         <v>28</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>80</v>
@@ -17795,7 +17795,7 @@
         <v>27</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>81</v>
@@ -17851,7 +17851,7 @@
         <v>27</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>81</v>
@@ -17907,7 +17907,7 @@
         <v>27</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>81</v>
@@ -17966,7 +17966,7 @@
         <v>27</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>81</v>
@@ -18022,7 +18022,7 @@
         <v>27</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>81</v>
@@ -18078,7 +18078,7 @@
         <v>27</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>81</v>
@@ -18134,7 +18134,7 @@
         <v>27</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>81</v>
@@ -18190,7 +18190,7 @@
         <v>27</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>81</v>
@@ -18249,7 +18249,7 @@
         <v>27</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>81</v>
@@ -18305,7 +18305,7 @@
         <v>27</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>81</v>
@@ -18361,7 +18361,7 @@
         <v>27</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>82</v>
@@ -18417,7 +18417,7 @@
         <v>27</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>82</v>
@@ -18473,7 +18473,7 @@
         <v>27</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>82</v>
@@ -18532,7 +18532,7 @@
         <v>27</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>82</v>
@@ -18588,7 +18588,7 @@
         <v>27</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>82</v>
@@ -18644,7 +18644,7 @@
         <v>27</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>82</v>
@@ -18700,7 +18700,7 @@
         <v>27</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>82</v>
@@ -18756,7 +18756,7 @@
         <v>27</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>82</v>
@@ -18815,7 +18815,7 @@
         <v>27</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>82</v>
@@ -18874,7 +18874,7 @@
         <v>27</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>82</v>
@@ -18930,7 +18930,7 @@
         <v>27</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>84</v>
@@ -18986,7 +18986,7 @@
         <v>27</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>84</v>
@@ -19042,7 +19042,7 @@
         <v>27</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>84</v>
@@ -19101,7 +19101,7 @@
         <v>27</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>84</v>
@@ -19157,7 +19157,7 @@
         <v>27</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>84</v>
@@ -19213,7 +19213,7 @@
         <v>27</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>84</v>
@@ -19269,7 +19269,7 @@
         <v>27</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>84</v>
@@ -19325,7 +19325,7 @@
         <v>27</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>84</v>
@@ -19384,7 +19384,7 @@
         <v>27</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>84</v>
@@ -19440,7 +19440,7 @@
         <v>27</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>84</v>
@@ -26656,7 +26656,7 @@
         <v>27</v>
       </c>
       <c r="E450" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F450" s="2" t="s">
         <v>108</v>
@@ -26712,7 +26712,7 @@
         <v>27</v>
       </c>
       <c r="E451" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>108</v>
@@ -26768,7 +26768,7 @@
         <v>27</v>
       </c>
       <c r="E452" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>108</v>
@@ -26827,7 +26827,7 @@
         <v>27</v>
       </c>
       <c r="E453" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>108</v>
@@ -26883,7 +26883,7 @@
         <v>27</v>
       </c>
       <c r="E454" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>108</v>
@@ -29537,7 +29537,7 @@
         <v>31</v>
       </c>
       <c r="E500" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>113</v>
@@ -29594,7 +29594,7 @@
         <v>31</v>
       </c>
       <c r="E501" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F501" s="2" t="s">
         <v>113</v>
@@ -29651,7 +29651,7 @@
         <v>31</v>
       </c>
       <c r="E502" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F502" s="2" t="s">
         <v>113</v>
@@ -29708,7 +29708,7 @@
         <v>31</v>
       </c>
       <c r="E503" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F503" s="2" t="s">
         <v>113</v>
@@ -29765,7 +29765,7 @@
         <v>31</v>
       </c>
       <c r="E504" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>113</v>
@@ -29822,7 +29822,7 @@
         <v>31</v>
       </c>
       <c r="E505" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F505" s="2" t="s">
         <v>113</v>
@@ -29879,7 +29879,7 @@
         <v>31</v>
       </c>
       <c r="E506" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F506" s="2" t="s">
         <v>113</v>
@@ -29936,7 +29936,7 @@
         <v>31</v>
       </c>
       <c r="E507" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>113</v>
@@ -29993,7 +29993,7 @@
         <v>31</v>
       </c>
       <c r="E508" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>113</v>
@@ -30050,7 +30050,7 @@
         <v>31</v>
       </c>
       <c r="E509" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>113</v>
@@ -30107,7 +30107,7 @@
         <v>31</v>
       </c>
       <c r="E510" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>113</v>
@@ -30164,7 +30164,7 @@
         <v>31</v>
       </c>
       <c r="E511" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>113</v>
@@ -30221,7 +30221,7 @@
         <v>31</v>
       </c>
       <c r="E512" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>113</v>
@@ -30278,7 +30278,7 @@
         <v>31</v>
       </c>
       <c r="E513" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>113</v>
@@ -30335,7 +30335,7 @@
         <v>31</v>
       </c>
       <c r="E514" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>113</v>
@@ -30965,7 +30965,7 @@
         <v>31</v>
       </c>
       <c r="E525" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>116</v>
@@ -31021,7 +31021,7 @@
         <v>31</v>
       </c>
       <c r="E526" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>116</v>
@@ -31077,7 +31077,7 @@
         <v>31</v>
       </c>
       <c r="E527" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>116</v>
@@ -31136,7 +31136,7 @@
         <v>31</v>
       </c>
       <c r="E528" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F528" s="2" t="s">
         <v>116</v>
@@ -31192,7 +31192,7 @@
         <v>31</v>
       </c>
       <c r="E529" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F529" s="2" t="s">
         <v>116</v>
@@ -31249,7 +31249,7 @@
         <v>31</v>
       </c>
       <c r="E530" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>116</v>
@@ -31305,7 +31305,7 @@
         <v>31</v>
       </c>
       <c r="E531" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F531" s="2" t="s">
         <v>116</v>
@@ -31361,7 +31361,7 @@
         <v>31</v>
       </c>
       <c r="E532" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>116</v>
@@ -31420,7 +31420,7 @@
         <v>31</v>
       </c>
       <c r="E533" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F533" s="2" t="s">
         <v>116</v>
@@ -31476,7 +31476,7 @@
         <v>31</v>
       </c>
       <c r="E534" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F534" s="2" t="s">
         <v>116</v>
@@ -31532,7 +31532,7 @@
         <v>31</v>
       </c>
       <c r="E535" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>116</v>
@@ -31588,7 +31588,7 @@
         <v>31</v>
       </c>
       <c r="E536" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F536" s="2" t="s">
         <v>116</v>
@@ -31644,7 +31644,7 @@
         <v>31</v>
       </c>
       <c r="E537" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F537" s="2" t="s">
         <v>116</v>
@@ -31703,7 +31703,7 @@
         <v>31</v>
       </c>
       <c r="E538" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F538" s="2" t="s">
         <v>116</v>
@@ -31759,7 +31759,7 @@
         <v>31</v>
       </c>
       <c r="E539" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F539" s="2" t="s">
         <v>116</v>
